--- a/public/ai_services_template.xlsx
+++ b/public/ai_services_template.xlsx
@@ -397,154 +397,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>Alive</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>표시위치</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
+        <v>NEW</v>
+      </c>
+      <c r="E1" t="str">
         <v>서비스명(영문)</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>서비스명(국문)</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>기업명(영문)</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>기업명(국문)</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>임베디드 영상 URL</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>본사</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>대표 URL</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>로고(URL)</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>형태</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>메인 카테고리</v>
       </c>
-      <c r="M1" t="str">
-        <v>서브카테고리</v>
-      </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
+        <v>서브 카테고리</v>
+      </c>
+      <c r="P1" t="str">
         <v>Target</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>Price</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>사용</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>한줄설명</v>
       </c>
-      <c r="R1" t="str">
+      <c r="T1" t="str">
         <v>주요기능</v>
       </c>
-      <c r="S1" t="str">
+      <c r="U1" t="str">
         <v>난이도</v>
       </c>
-      <c r="T1" t="str">
+      <c r="V1" t="str">
         <v>타겟 사용자</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>추천활용사례</v>
       </c>
-      <c r="V1" t="str">
+      <c r="X1" t="str">
+        <v>Tags</v>
+      </c>
+      <c r="Y1" t="str">
         <v>유사 서비스</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
+        <v>00001</v>
+      </c>
+      <c r="B2" t="str">
         <v>Yes</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>STEP_PICK</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="E2" t="str">
         <v>ChatGPT</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
         <v>채지피티</v>
       </c>
-      <c r="E2" t="str">
+      <c r="G2" t="str">
         <v>OpenAI</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>오픈AI</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
         <v>https://openai.com/ko-KR/gpt-5/?video=1108141299</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>미국</v>
       </c>
-      <c r="I2" t="str">
+      <c r="K2" t="str">
         <v>https://chatgpt.com/</v>
       </c>
-      <c r="J2" t="str">
+      <c r="L2" t="str">
         <v>https://drive.google.com/uc?export=view&amp;id=1PJ7zwUNOGJjYRxDc43JS-KFgV3WDSRR-</v>
       </c>
-      <c r="K2" t="str">
+      <c r="M2" t="str">
         <v>WEB, MOB, API</v>
       </c>
-      <c r="L2" t="str">
+      <c r="N2" t="str">
         <v>문서·글쓰기</v>
       </c>
-      <c r="M2" t="str">
-        <v>#AI글쓰기 #대화형에이전트 #개인어시스턴트</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
         <v>B, C</v>
       </c>
-      <c r="O2" t="str">
+      <c r="Q2" t="str">
         <v>유료, 무료</v>
       </c>
-      <c r="P2" t="str">
+      <c r="R2" t="str">
         <v>가능</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="S2" t="str">
         <v>OpenAI의 대화형 인공지능 채팅봇 서비스</v>
       </c>
-      <c r="R2" t="str" xml:space="preserve">
+      <c r="T2" t="str" xml:space="preserve">
         <v xml:space="preserve">언어 이해: 자연어 이해 및 생성 지원
 정보 제공: 다양한 주제에 대한 정보 제공
 다목적 활용: 코드 작성, 번역, 요약</v>
       </c>
-      <c r="S2" t="str">
+      <c r="U2" t="str">
         <v>초급</v>
       </c>
-      <c r="T2" t="str" xml:space="preserve">
+      <c r="V2" t="str" xml:space="preserve">
         <v xml:space="preserve">빠른 정보 검색 및 학습 효율화를 원하는 개인 사용자
 학습 자료 체계적 정리와 과제 수행 지원을 원하는 학생</v>
       </c>
-      <c r="U2" t="str" xml:space="preserve">
+      <c r="W2" t="str" xml:space="preserve">
         <v xml:space="preserve">보고서와 이메일 초안을 빠르게 작성하여 업무 효율을 증진
 새로운 아이디어가 필요할 때 브레인스토밍 파트너로 활용</v>
       </c>
-      <c r="V2" t="str">
-        <v>Claude, DeepSeek, Gemini, Perplexity AI</v>
+      <c r="X2" t="str">
+        <v>#AI글쓰기 #대화형에이전트 #개인어시스턴트</v>
+      </c>
+      <c r="Y2" t="str" xml:space="preserve">
+        <v xml:space="preserve">00002
+00003
+00005</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y2"/>
   </ignoredErrors>
 </worksheet>
 </file>